--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -953,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -1525,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -164,7 +164,7 @@
     <t>Darwin and his theories (what is evolution)</t>
   </si>
   <si>
-    <t>Exercises on natural selection</t>
+    <t>Exercise - Randomness and Perfection</t>
   </si>
   <si>
     <t>Understanding Natural Selection</t>
@@ -953,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -1525,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -176,13 +176,13 @@
     <t>Exponential growth</t>
   </si>
   <si>
-    <t>Exercises - Legend of Ambalapuzha; Geometric growth; Stochastic growth</t>
+    <t>Exercises - Geometric growth (in class); Stochastic growth (as homework)</t>
   </si>
   <si>
     <t>Logistic growth</t>
   </si>
   <si>
-    <t>Exercises - Basic logistic population growth; Deeper into logistic growth</t>
+    <t>Exercises - Basic logistic population growth (in class); Deeper into logistic growth (as homework)</t>
   </si>
   <si>
     <t>Life tables</t>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -953,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -1525,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="93">
   <si>
     <t>Part</t>
   </si>
@@ -203,6 +203,9 @@
     <t>Exercises - How many eggs should a bird lay?; Trade-offs and the force of selection</t>
   </si>
   <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
     <t>The Hardy-Weinberg Principle</t>
   </si>
   <si>
@@ -219,12 +222,6 @@
   </si>
   <si>
     <t>Exercises - Neutral/adaptive in humans</t>
-  </si>
-  <si>
-    <t>Inbreeding</t>
-  </si>
-  <si>
-    <t>Exercise on Inbreeding</t>
   </si>
   <si>
     <t>Migration, Gene Flow and Differentiation of Populations</t>
@@ -393,7 +390,7 @@
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -419,7 +416,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -445,7 +442,7 @@
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +468,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +494,7 @@
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +520,7 @@
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -549,7 +546,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +572,7 @@
         <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +598,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +624,7 @@
         <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -653,7 +650,7 @@
         <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -679,7 +676,7 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -705,7 +702,7 @@
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -731,7 +728,7 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -757,7 +754,7 @@
         <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -780,10 +777,10 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -806,10 +803,10 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -832,10 +829,10 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -858,10 +855,10 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -884,10 +881,10 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -910,10 +907,10 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -936,10 +933,10 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -953,7 +950,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -962,10 +959,10 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
@@ -988,10 +985,10 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -1014,10 +1011,10 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27">
@@ -1040,10 +1037,10 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
@@ -1066,10 +1063,10 @@
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -1092,10 +1089,10 @@
         <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -1118,10 +1115,10 @@
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -1144,10 +1141,10 @@
         <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -1170,10 +1167,10 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -1196,10 +1193,10 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -1222,10 +1219,10 @@
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -1248,10 +1245,10 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -1274,10 +1271,10 @@
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -1300,10 +1297,10 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -1326,10 +1323,10 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -1352,10 +1349,10 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
@@ -1378,10 +1375,10 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
@@ -1404,10 +1401,10 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
@@ -1430,10 +1427,10 @@
         <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -1456,10 +1453,10 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -1482,10 +1479,10 @@
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
@@ -1508,10 +1505,10 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
@@ -1525,7 +1522,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>
@@ -1534,10 +1531,10 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -1560,10 +1557,10 @@
         <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>Part</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>Exercise on selection</t>
-  </si>
-  <si>
-    <t>Applying Zygotic Selection Models to Natural Systems</t>
   </si>
   <si>
     <t>Polygenic Inheritance and Quantitative Genetics</t>
@@ -390,7 +387,7 @@
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -416,7 +413,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +439,7 @@
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +465,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +491,7 @@
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +517,7 @@
         <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -546,7 +543,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +569,7 @@
         <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +595,7 @@
         <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -624,7 +621,7 @@
         <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +647,7 @@
         <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +673,7 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
@@ -702,7 +699,7 @@
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
@@ -728,7 +725,7 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -754,7 +751,7 @@
         <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -780,7 +777,7 @@
         <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +803,7 @@
         <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -832,7 +829,7 @@
         <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -858,7 +855,7 @@
         <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -884,7 +881,7 @@
         <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -907,10 +904,10 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -933,10 +930,10 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -950,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -959,10 +956,10 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -985,10 +982,10 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
@@ -1011,10 +1008,10 @@
         <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1037,10 +1034,10 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1063,10 +1060,10 @@
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -1092,7 +1089,7 @@
         <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -1115,10 +1112,10 @@
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -1141,10 +1138,10 @@
         <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -1167,10 +1164,10 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -1193,10 +1190,10 @@
         <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -1219,10 +1216,10 @@
         <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1245,10 +1242,10 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
@@ -1271,10 +1268,10 @@
         <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
@@ -1297,10 +1294,10 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -1323,10 +1320,10 @@
         <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
@@ -1349,10 +1346,10 @@
         <v>48</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -1375,10 +1372,10 @@
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -1401,10 +1398,10 @@
         <v>47</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -1427,10 +1424,10 @@
         <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -1453,10 +1450,10 @@
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -1479,10 +1476,10 @@
         <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -1505,10 +1502,10 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
@@ -1522,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>
@@ -1531,10 +1528,10 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
@@ -1557,10 +1554,10 @@
         <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -221,13 +221,13 @@
     <t>Genetic Drift and Effective Population Size</t>
   </si>
   <si>
+    <t>Inbreeding</t>
+  </si>
+  <si>
+    <t>Migration, Gene Flow and Differentiation of Populations</t>
+  </si>
+  <si>
     <t>Exercises - Neutral/adaptive in humans</t>
-  </si>
-  <si>
-    <t>Migration, Gene Flow and Differentiation of Populations</t>
-  </si>
-  <si>
-    <t>Exercise on migration/gene flow</t>
   </si>
   <si>
     <t>Haploid and Zygotic Selection</t>
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -979,7 +979,7 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
@@ -1519,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -1519,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
         <v>23.0</v>
@@ -1519,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="n">
         <v>45.0</v>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
   <si>
     <t>Part</t>
   </si>
@@ -53,73 +53,85 @@
     <t>Animal behaviour, altruism and sexual selection</t>
   </si>
   <si>
-    <t>Sep 2, Fri</t>
-  </si>
-  <si>
-    <t>Sep 6, Tue</t>
-  </si>
-  <si>
-    <t>Sep 9, Fri</t>
-  </si>
-  <si>
-    <t>Sep 13, Tue</t>
-  </si>
-  <si>
-    <t>Sep 16, Fri</t>
-  </si>
-  <si>
-    <t>Sep 20, Tue</t>
-  </si>
-  <si>
-    <t>Sep 23, Fri</t>
-  </si>
-  <si>
-    <t>Oct 4, Tue</t>
-  </si>
-  <si>
-    <t>Oct 7, Fri</t>
-  </si>
-  <si>
-    <t>Oct 11, Tue</t>
-  </si>
-  <si>
-    <t>Oct 14, Fri</t>
-  </si>
-  <si>
-    <t>Nov 1, Tue</t>
-  </si>
-  <si>
-    <t>Nov 3, Thu</t>
-  </si>
-  <si>
-    <t>Nov 8, Tue</t>
-  </si>
-  <si>
-    <t>Nov 11, Fri</t>
-  </si>
-  <si>
-    <t>Nov 14, Mon</t>
-  </si>
-  <si>
-    <t>Nov 16, Wed</t>
-  </si>
-  <si>
-    <t>Nov 21, Mon</t>
-  </si>
-  <si>
-    <t>Nov 24, Thu</t>
-  </si>
-  <si>
-    <t>Nov 28, Mon</t>
-  </si>
-  <si>
-    <t>Dec 1, Thu</t>
-  </si>
-  <si>
-    <t>Dec 5, Mon</t>
-  </si>
-  <si>
-    <t>Dec 7, Wed</t>
+    <t>Sep 4, Mon</t>
+  </si>
+  <si>
+    <t>Sep 7, Thu</t>
+  </si>
+  <si>
+    <t>Sep 11, Mon</t>
+  </si>
+  <si>
+    <t>Sep 14, Thu</t>
+  </si>
+  <si>
+    <t>Sep 18, Mon</t>
+  </si>
+  <si>
+    <t>Sep 21, Thu</t>
+  </si>
+  <si>
+    <t>Oct 3, Tue</t>
+  </si>
+  <si>
+    <t>Oct 9, Mon</t>
+  </si>
+  <si>
+    <t>Oct 10, Tue</t>
+  </si>
+  <si>
+    <t>Oct 30, Mon</t>
+  </si>
+  <si>
+    <t>Nov 2, Thu</t>
+  </si>
+  <si>
+    <t>Nov 6, Mon</t>
+  </si>
+  <si>
+    <t>Nov 9, Thu</t>
+  </si>
+  <si>
+    <t>Nov 13, Mon</t>
+  </si>
+  <si>
+    <t>Nov 16, Thu</t>
+  </si>
+  <si>
+    <t>Nov 20, Mon</t>
+  </si>
+  <si>
+    <t>Nov 23, Thu</t>
+  </si>
+  <si>
+    <t>Nov 27, Mon</t>
+  </si>
+  <si>
+    <t>Nov 29, Wed</t>
+  </si>
+  <si>
+    <t>Dec 4, Mon</t>
+  </si>
+  <si>
+    <t>Dec 6, Wed</t>
+  </si>
+  <si>
+    <t>Dec 12, Tue</t>
+  </si>
+  <si>
+    <t>kl.12-13</t>
+  </si>
+  <si>
+    <t>kl.13-14</t>
+  </si>
+  <si>
+    <t>kl.14-15</t>
+  </si>
+  <si>
+    <t>kl.15-16</t>
+  </si>
+  <si>
+    <t>kl.16-17</t>
   </si>
   <si>
     <t>kl.8-9</t>
@@ -128,33 +140,51 @@
     <t>kl.9-10</t>
   </si>
   <si>
-    <t>kl.12-13</t>
-  </si>
-  <si>
-    <t>kl.13-14</t>
-  </si>
-  <si>
     <t>kl.10-11</t>
   </si>
   <si>
     <t>kl.11-12</t>
   </si>
   <si>
-    <t>kl.15-16</t>
-  </si>
-  <si>
-    <t>kl.16-17</t>
-  </si>
-  <si>
-    <t>kl.14-15</t>
+    <t>kl.17-18</t>
+  </si>
+  <si>
+    <t>(U55)</t>
   </si>
   <si>
     <t>(U42)</t>
   </si>
   <si>
+    <t>(U1)</t>
+  </si>
+  <si>
     <t>(U20)</t>
   </si>
   <si>
+    <t>(U150)</t>
+  </si>
+  <si>
+    <t>(U163)</t>
+  </si>
+  <si>
+    <t>(U43)</t>
+  </si>
+  <si>
+    <t>(U82)</t>
+  </si>
+  <si>
+    <t>(U140)</t>
+  </si>
+  <si>
+    <t>(U220)</t>
+  </si>
+  <si>
+    <t>(U177)</t>
+  </si>
+  <si>
+    <t>(U170)</t>
+  </si>
+  <si>
     <t>Lecture</t>
   </si>
   <si>
@@ -164,7 +194,7 @@
     <t>Darwin and his theories (what is evolution)</t>
   </si>
   <si>
-    <t>Exercise - Randomness and Perfection</t>
+    <t>Exercise - The Blind Watchmaker</t>
   </si>
   <si>
     <t>Understanding Natural Selection</t>
@@ -203,9 +233,6 @@
     <t>Exercises - How many eggs should a bird lay?; Trade-offs and the force of selection</t>
   </si>
   <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
     <t>The Hardy-Weinberg Principle</t>
   </si>
   <si>
@@ -215,15 +242,21 @@
     <t>Mutation and Genetic Variance of Populations</t>
   </si>
   <si>
+    <t>Exercises - From population biology to fitness</t>
+  </si>
+  <si>
+    <t>Genetic Drift and Effective Population Size</t>
+  </si>
+  <si>
     <t>Practice Exam 1 (covering material until now)</t>
   </si>
   <si>
-    <t>Genetic Drift and Effective Population Size</t>
-  </si>
-  <si>
     <t>Inbreeding</t>
   </si>
   <si>
+    <t>Feedback on practice exam 1</t>
+  </si>
+  <si>
     <t>Migration, Gene Flow and Differentiation of Populations</t>
   </si>
   <si>
@@ -239,7 +272,7 @@
     <t>Polygenic Inheritance and Quantitative Genetics</t>
   </si>
   <si>
-    <t>Exercises on quantitative genetics (or summary/synthesis)</t>
+    <t>Exercises on quantitative genetics)</t>
   </si>
   <si>
     <t>Competition 1 (Interspecific Competition)</t>
@@ -251,6 +284,9 @@
     <t>Competition 2 (Interspecific Competition)</t>
   </si>
   <si>
+    <t>Exercises on Lotka-Volterra competition (continued)</t>
+  </si>
+  <si>
     <t>Predation 1</t>
   </si>
   <si>
@@ -275,13 +311,13 @@
     <t>Animal Behaviour, Altruism and Limiting Aggression</t>
   </si>
   <si>
-    <t>Exercises on game theory</t>
+    <t>Exercises - Hawks and Doves</t>
   </si>
   <si>
     <t>Sexual Selection and Mating Systems</t>
   </si>
   <si>
-    <t>Wrap-up, questions etc.</t>
+    <t>Feedback on practice exam 2</t>
   </si>
   <si>
     <t>ORJ</t>
@@ -372,7 +408,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -381,13 +417,13 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -398,22 +434,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -424,22 +460,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v>3.0</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -450,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -459,13 +495,13 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -476,22 +512,22 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
         <v>5.0</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -502,22 +538,22 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>6.0</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -531,19 +567,19 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
         <v>7.0</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -557,19 +593,19 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" t="n">
         <v>8.0</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -580,22 +616,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -606,22 +642,22 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>10.0</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -632,22 +668,22 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
         <v>11.0</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -658,22 +694,22 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
         <v>12.0</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -684,22 +720,22 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
         <v>13.0</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -710,22 +746,22 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
         <v>14.0</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -739,19 +775,19 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>15.0</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +801,19 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
         <v>16.0</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
@@ -788,22 +824,22 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
         <v>17.0</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -814,22 +850,22 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>18.0</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -840,22 +876,22 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
         <v>19.0</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -866,22 +902,22 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>20.0</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -892,22 +928,22 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
         <v>21.0</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -918,22 +954,22 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
         <v>22.0</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
@@ -944,7 +980,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -953,13 +989,13 @@
         <v>23.0</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -970,22 +1006,22 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
         <v>24.0</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -999,19 +1035,19 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>25.0</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
@@ -1031,13 +1067,13 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -1048,22 +1084,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
         <v>27.0</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -1074,48 +1110,48 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" t="n">
         <v>28.0</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="e">
-        <v>#N/A</v>
+      <c r="A30" t="s">
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
         <v>29.0</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -1126,48 +1162,48 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E31" t="n">
         <v>30.0</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>11</v>
+      <c r="A32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E32" t="n">
         <v>31.0</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1178,22 +1214,22 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
         <v>32.0</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -1204,22 +1240,22 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E34" t="n">
         <v>33.0</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -1230,22 +1266,22 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E35" t="n">
         <v>34.0</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1256,22 +1292,22 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E36" t="n">
         <v>35.0</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1282,22 +1318,22 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" t="n">
         <v>36.0</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -1308,22 +1344,22 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E38" t="n">
         <v>37.0</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -1334,22 +1370,22 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" t="n">
         <v>38.0</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -1360,22 +1396,22 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E40" t="n">
         <v>39.0</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1386,22 +1422,22 @@
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" t="n">
         <v>40.0</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -1412,22 +1448,22 @@
         <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E42" t="n">
         <v>41.0</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -1438,22 +1474,22 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E43" t="n">
         <v>42.0</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -1464,22 +1500,22 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E44" t="n">
         <v>43.0</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -1490,74 +1526,22 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E45" t="n">
         <v>44.0</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/BB512_schedule_with_dates.xlsx
+++ b/BB512_schedule_with_dates.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="104">
   <si>
     <t>Part</t>
   </si>
@@ -968,8 +968,8 @@
       <c r="G23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" t="e">
-        <v>#N/A</v>
+      <c r="H23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24">
